--- a/documentatie/PGWBS.xlsx
+++ b/documentatie/PGWBS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="project WBS monitor" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>C</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Layout maken</t>
+  </si>
+  <si>
+    <t>login maken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database </t>
+  </si>
+  <si>
+    <t>mohamed</t>
   </si>
 </sst>
 </file>
@@ -956,7 +965,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1090,28 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
+      <c r="C7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1113,7 +1140,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18">
         <f>SUBTOTAL(9,G5:G11)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2">
         <f>SUBTOTAL(9,H5:H5)</f>

--- a/documentatie/PGWBS.xlsx
+++ b/documentatie/PGWBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rocforum\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,8 +17,8 @@
     <sheet name="version" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'project WBS monitor'!$A$4:$H$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'project WBS monitor'!$A$1:$X$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'project WBS monitor'!$A$4:$H$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'project WBS monitor'!$A$1:$X$36</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>C</t>
   </si>
@@ -155,16 +155,46 @@
     <t>Template zoeken</t>
   </si>
   <si>
-    <t>Layout maken</t>
-  </si>
-  <si>
-    <t>login maken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">database </t>
-  </si>
-  <si>
-    <t>mohamed</t>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Homepage maken (nog niet ingelogd)</t>
+  </si>
+  <si>
+    <t>Homepage maken (als er is ingelogd)</t>
+  </si>
+  <si>
+    <t>Profielpagina</t>
+  </si>
+  <si>
+    <t>Mohamed&amp; Rob</t>
+  </si>
+  <si>
+    <t>Topics posten en ophalen</t>
+  </si>
+  <si>
+    <t>PDF  poster genereren op basis van post.</t>
+  </si>
+  <si>
+    <t>Adminrechten voor bepaalde colleges</t>
+  </si>
+  <si>
+    <t>Adminrechten voor gehele site</t>
+  </si>
+  <si>
+    <t>Laatste post user /Aantal topics/Laatste post tijd</t>
+  </si>
+  <si>
+    <t>CSS/HTML allemaal op orde maken</t>
   </si>
 </sst>
 </file>
@@ -962,10 +992,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1068,22 +1098,16 @@
       <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,13 +1115,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,172 +1126,253 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
+      <c r="C9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
+      <c r="C10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
+      <c r="C11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
-        <f>SUBTOTAL(9,G5:G11)</f>
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="D18" s="2"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
+        <f>SUBTOTAL(9,G5:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <f>SUBTOTAL(9,H5:H5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="28"/>
+      <c r="C22" s="49"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
       <c r="B25" s="38"/>
       <c r="C25" s="39"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="33"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="28"/>
+      <c r="B29" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H11"/>
+  <autoFilter ref="A4:H17"/>
   <mergeCells count="11">
-    <mergeCell ref="B17:C21"/>
+    <mergeCell ref="B23:C27"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B24:C28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B30:C34"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" fitToWidth="2" fitToHeight="6" orientation="landscape" r:id="rId1"/>
